--- a/docs/template.xlsx
+++ b/docs/template.xlsx
@@ -8,34 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelv\Dropbox\Dev\Python\Projects\Crypto Spot Price\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39554B9-546B-450E-8BE8-56FB0EDE4E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139D1679-CCFB-4FDC-BF78-FC5380E912AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTC" sheetId="1" r:id="rId1"/>
     <sheet name="ETH" sheetId="2" r:id="rId2"/>
+    <sheet name="ALGO" sheetId="3" r:id="rId3"/>
+    <sheet name="ATOM" sheetId="5" r:id="rId4"/>
+    <sheet name="HNT" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BTC!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ALGO!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ATOM!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BTC!$A$2:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ETH!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HNT!$A$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Bitcoin (BTC)</t>
   </si>
@@ -52,10 +48,19 @@
     <t>Close</t>
   </si>
   <si>
+    <t>+ / -</t>
+  </si>
+  <si>
     <t>Etheruem (ETH)</t>
   </si>
   <si>
-    <t>+ / -</t>
+    <t>Algorand (ALGO)</t>
+  </si>
+  <si>
+    <t>Helium (HNT)</t>
+  </si>
+  <si>
+    <t>Cosmos (ATOM)</t>
   </si>
 </sst>
 </file>
@@ -107,20 +112,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,21 +442,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="30.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="5" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
@@ -460,24 +463,168 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -489,23 +636,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="30.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="5" width="15.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -513,21 +657,165 @@
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -537,4 +825,583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD37619C-616C-4E9F-B434-9877C629A58B}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="15.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>